--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H2">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N2">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O2">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P2">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q2">
-        <v>40.45380681070511</v>
+        <v>42.30932797355445</v>
       </c>
       <c r="R2">
-        <v>364.084261296346</v>
+        <v>380.78395176199</v>
       </c>
       <c r="S2">
-        <v>0.1671136200146222</v>
+        <v>0.1495466341097152</v>
       </c>
       <c r="T2">
-        <v>0.1671136200146222</v>
+        <v>0.1495466341097152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H3">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.839784</v>
       </c>
       <c r="O3">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P3">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q3">
-        <v>2.978873144521778</v>
+        <v>3.810283108808889</v>
       </c>
       <c r="R3">
-        <v>26.809858300696</v>
+        <v>34.29254797927999</v>
       </c>
       <c r="S3">
-        <v>0.01230564720583086</v>
+        <v>0.01346783419211091</v>
       </c>
       <c r="T3">
-        <v>0.01230564720583087</v>
+        <v>0.01346783419211091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H4">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N4">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O4">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P4">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q4">
-        <v>0.679477646986</v>
+        <v>1.637406385006666</v>
       </c>
       <c r="R4">
-        <v>6.115298822873999</v>
+        <v>14.73665746506</v>
       </c>
       <c r="S4">
-        <v>0.002806904424055334</v>
+        <v>0.005787579838199256</v>
       </c>
       <c r="T4">
-        <v>0.002806904424055335</v>
+        <v>0.005787579838199254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H5">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N5">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O5">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P5">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q5">
-        <v>8.074206958424556</v>
+        <v>15.06458510180889</v>
       </c>
       <c r="R5">
-        <v>72.667862625821</v>
+        <v>135.58126591628</v>
       </c>
       <c r="S5">
-        <v>0.03335433819327276</v>
+        <v>0.05324731221547729</v>
       </c>
       <c r="T5">
-        <v>0.03335433819327277</v>
+        <v>0.05324731221547729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H6">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N6">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O6">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P6">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q6">
-        <v>0.5503194199813334</v>
+        <v>2.91616728143</v>
       </c>
       <c r="R6">
-        <v>4.952874779831999</v>
+        <v>26.24550553287</v>
       </c>
       <c r="S6">
-        <v>0.002273355159571566</v>
+        <v>0.01030749062503008</v>
       </c>
       <c r="T6">
-        <v>0.002273355159571566</v>
+        <v>0.01030749062503008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N7">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O7">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P7">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q7">
-        <v>67.53232052527201</v>
+        <v>55.218317274876</v>
       </c>
       <c r="R7">
-        <v>607.7908847274481</v>
+        <v>496.964855473884</v>
       </c>
       <c r="S7">
-        <v>0.2789742533693894</v>
+        <v>0.195174773156916</v>
       </c>
       <c r="T7">
-        <v>0.2789742533693894</v>
+        <v>0.195174773156916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>7.839784</v>
       </c>
       <c r="O8">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P8">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q8">
-        <v>4.972837709472001</v>
+        <v>4.972837709472</v>
       </c>
       <c r="R8">
-        <v>44.75553938524801</v>
+        <v>44.755539385248</v>
       </c>
       <c r="S8">
-        <v>0.02054266277741694</v>
+        <v>0.01757700197673282</v>
       </c>
       <c r="T8">
-        <v>0.02054266277741695</v>
+        <v>0.01757700197673282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N9">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O9">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P9">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q9">
-        <v>1.134298743768</v>
+        <v>2.136995069544</v>
       </c>
       <c r="R9">
-        <v>10.208688693912</v>
+        <v>19.232955625896</v>
       </c>
       <c r="S9">
-        <v>0.004685758503176202</v>
+        <v>0.007553426987994624</v>
       </c>
       <c r="T9">
-        <v>0.004685758503176204</v>
+        <v>0.007553426987994623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N10">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O10">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P10">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q10">
-        <v>13.478828700972</v>
+        <v>19.660937188272</v>
       </c>
       <c r="R10">
-        <v>121.309458308748</v>
+        <v>176.948434694448</v>
       </c>
       <c r="S10">
-        <v>0.05568068954094947</v>
+        <v>0.06949358736651176</v>
       </c>
       <c r="T10">
-        <v>0.05568068954094949</v>
+        <v>0.06949358736651176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N11">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O11">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P11">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q11">
-        <v>0.9186860370240002</v>
+        <v>3.805918408188</v>
       </c>
       <c r="R11">
-        <v>8.268174333216001</v>
+        <v>34.253265673692</v>
       </c>
       <c r="S11">
-        <v>0.003795068039513682</v>
+        <v>0.01345240671268703</v>
       </c>
       <c r="T11">
-        <v>0.003795068039513682</v>
+        <v>0.01345240671268703</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H12">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I12">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J12">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N12">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O12">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P12">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q12">
-        <v>77.70627160859378</v>
+        <v>84.56006938107789</v>
       </c>
       <c r="R12">
-        <v>699.356444477344</v>
+        <v>761.040624429701</v>
       </c>
       <c r="S12">
-        <v>0.3210025797353438</v>
+        <v>0.2988861880275763</v>
       </c>
       <c r="T12">
-        <v>0.3210025797353439</v>
+        <v>0.2988861880275763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H13">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I13">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J13">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.839784</v>
       </c>
       <c r="O13">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P13">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q13">
-        <v>5.722010952860444</v>
+        <v>7.615290042985778</v>
       </c>
       <c r="R13">
-        <v>51.498098575744</v>
+        <v>68.537610386872</v>
       </c>
       <c r="S13">
-        <v>0.0236374778910247</v>
+        <v>0.0269170192069604</v>
       </c>
       <c r="T13">
-        <v>0.0236374778910247</v>
+        <v>0.0269170192069604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H14">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I14">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J14">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N14">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O14">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P14">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q14">
-        <v>1.305184326304</v>
+        <v>3.272545420899333</v>
       </c>
       <c r="R14">
-        <v>11.746658936736</v>
+        <v>29.452908788094</v>
       </c>
       <c r="S14">
-        <v>0.005391682384197491</v>
+        <v>0.01156714549974786</v>
       </c>
       <c r="T14">
-        <v>0.005391682384197494</v>
+        <v>0.01156714549974786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H15">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I15">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J15">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N15">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O15">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P15">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q15">
-        <v>15.50945555930489</v>
+        <v>30.10830997368577</v>
       </c>
       <c r="R15">
-        <v>139.585100033744</v>
+        <v>270.974789763172</v>
       </c>
       <c r="S15">
-        <v>0.06406915608954455</v>
+        <v>0.1064208918210905</v>
       </c>
       <c r="T15">
-        <v>0.06406915608954458</v>
+        <v>0.1064208918210905</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H16">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I16">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J16">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N16">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O16">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P16">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q16">
-        <v>1.057088904405333</v>
+        <v>5.828296488157001</v>
       </c>
       <c r="R16">
-        <v>9.513800139648</v>
+        <v>52.45466839341301</v>
       </c>
       <c r="S16">
-        <v>0.004366806672090968</v>
+        <v>0.0206007082632499</v>
       </c>
       <c r="T16">
-        <v>0.004366806672090969</v>
+        <v>0.0206007082632499</v>
       </c>
     </row>
   </sheetData>
